--- a/data/case1/5/P1_5.xlsx
+++ b/data/case1/5/P1_5.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.35002697640635461</v>
+        <v>0.38057104854618728</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999995606587788</v>
+        <v>-0.0099999991852968151</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.072087914670689202</v>
+        <v>-0.0089999991700633331</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.061994953880265768</v>
+        <v>0.061993432799894777</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999995667601169</v>
+        <v>-0.0059999991849961631</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.005999999557033675</v>
+        <v>-0.036337352171894821</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999465889928</v>
+        <v>-0.019999999023621484</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999463252927</v>
+        <v>-0.019999999019309378</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999995515260807</v>
+        <v>-0.0059999991523955742</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.047769070898084465</v>
+        <v>-0.0059999991506956007</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999995591901154</v>
+        <v>0.050513198711037433</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999995475941148</v>
+        <v>-0.0059999991475865322</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999995398980488</v>
+        <v>-0.0059999991336701086</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999498911507</v>
+        <v>-0.01199999907150584</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999995356756486</v>
+        <v>-0.0059999991270887065</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999995339463652</v>
+        <v>-0.005999999124502331</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999995317046029</v>
+        <v>-0.0059999991209593873</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999995118210663</v>
+        <v>-0.0089999990911904248</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999995658178733</v>
+        <v>-0.07877321503573631</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.057534926547278431</v>
+        <v>-0.0089999991850771011</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999995530010146</v>
+        <v>-0.0089999991840281623</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.008999999552475213</v>
+        <v>-0.0089999991833966675</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999995479521644</v>
+        <v>-0.071810645185122368</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.075463596410395795</v>
+        <v>-0.041999998823588847</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999320278647</v>
+        <v>-0.041999998817220607</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999995561241803</v>
+        <v>-0.005999999159961078</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999995550428231</v>
+        <v>-0.0059999991578516543</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999995512169946</v>
+        <v>-0.0059999991485550908</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999510354797</v>
+        <v>-0.011999999084331137</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999458224504</v>
+        <v>0.016279072442002107</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999491067229</v>
+        <v>-0.014999999044777113</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999453229279</v>
+        <v>-0.020999998985240964</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.042613301336087872</v>
+        <v>-0.0059999991308510303</v>
       </c>
     </row>
   </sheetData>
